--- a/output/intraday/riepilogo_intraday_2025-10-07.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-10-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,145 +450,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Gap%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Shs Float</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Shares Outstanding</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Change from Open</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Close</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>OpenPM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>HighPM</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>LowPM</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ClosePM</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>VolumePM</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>TimePMH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>High_1m</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Low_1m</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Volume_1m</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>High_5m</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Low_5m</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Volume_5m</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>High_30m</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Low_30m</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Volume_30m</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>High_60m</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Low_60m</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_60m</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>High_90m</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Low_90m</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Volume_90m</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>High_240m</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Low_240m</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Volume_240m</t>
         </is>
@@ -604,587 +624,445 @@
         <v>45936</v>
       </c>
       <c r="C2" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28100000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98600000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>11.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>16.68</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>9.15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>11.57</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>137043813</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>15.15</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>15.99</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>10.51</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>11.49</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>19672615</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2025-10-06 08:00:00</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>11.98</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
         <v>11.44</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>1420199</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>12.76</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>11.44</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
         <v>5710751</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>14.16</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>11.44</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>23473423</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AA2" t="n">
         <v>14.33</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
         <v>11.44</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AC2" t="n">
         <v>33517015</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AD2" t="n">
         <v>14.33</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AE2" t="n">
         <v>11.44</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AF2" t="n">
         <v>40063768</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AG2" t="n">
         <v>16.68</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AH2" t="n">
         <v>9.15</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AI2" t="n">
         <v>116518630</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IONR</t>
+          <t>ONMD</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="C3" t="n">
-        <v>5.98</v>
+        <v>42.72</v>
       </c>
       <c r="D3" t="n">
-        <v>8.15</v>
+        <v>30440000</v>
       </c>
       <c r="E3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.53</v>
+        <v>46100000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>74.15%</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>5436709</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>5.22</v>
+        <v>3.67</v>
       </c>
       <c r="I3" t="n">
-        <v>6.28</v>
+        <v>1.41</v>
       </c>
       <c r="J3" t="n">
-        <v>4.97</v>
+        <v>2.56</v>
       </c>
       <c r="K3" t="n">
-        <v>6.02</v>
+        <v>245784367</v>
       </c>
       <c r="L3" t="n">
-        <v>370775</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-10-06 09:03:00</t>
-        </is>
+        <v>1.03</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.86</v>
       </c>
       <c r="N3" t="n">
-        <v>6.19</v>
+        <v>1.03</v>
       </c>
       <c r="O3" t="n">
-        <v>5.93</v>
+        <v>1.43</v>
       </c>
       <c r="P3" t="n">
-        <v>75052</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.5</v>
+        <v>35890934</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2025-10-06 07:04:00</t>
+        </is>
       </c>
       <c r="R3" t="n">
-        <v>5.93</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>163475</v>
+        <v>1.43</v>
       </c>
       <c r="T3" t="n">
-        <v>6.5</v>
+        <v>381354</v>
       </c>
       <c r="U3" t="n">
-        <v>5.93</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>367726</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>8.15</v>
+        <v>3060079</v>
       </c>
       <c r="X3" t="n">
-        <v>5.93</v>
+        <v>2.02</v>
       </c>
       <c r="Y3" t="n">
-        <v>2598759</v>
+        <v>1.41</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.15</v>
+        <v>24830071</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.93</v>
+        <v>2.02</v>
       </c>
       <c r="AB3" t="n">
-        <v>3260570</v>
+        <v>1.41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.15</v>
+        <v>49639141</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.5</v>
+        <v>2.84</v>
       </c>
       <c r="AE3" t="n">
-        <v>4855674</v>
+        <v>1.41</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>92791743</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>155605475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ONMD</t>
+          <t>SOPA</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="C4" t="n">
-        <v>1.44</v>
+        <v>126.95</v>
       </c>
       <c r="D4" t="n">
-        <v>3.67</v>
+        <v>5360000</v>
       </c>
       <c r="E4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.56</v>
+        <v>6110000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>65.63%</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>245784367</v>
+        <v>3.17</v>
       </c>
       <c r="H4" t="n">
-        <v>1.03</v>
+        <v>6.28</v>
       </c>
       <c r="I4" t="n">
-        <v>1.86</v>
+        <v>2.73</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.43</v>
+        <v>125497774</v>
       </c>
       <c r="L4" t="n">
-        <v>35890934</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-10-06 07:04:00</t>
-        </is>
+        <v>2.07</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>3.18</v>
       </c>
       <c r="P4" t="n">
-        <v>381354</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>76524782</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2025-10-06 06:15:00</t>
+        </is>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>3.21</v>
       </c>
       <c r="S4" t="n">
-        <v>3060079</v>
+        <v>3.11</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>855329</v>
       </c>
       <c r="U4" t="n">
-        <v>1.41</v>
+        <v>3.34</v>
       </c>
       <c r="V4" t="n">
-        <v>24830071</v>
+        <v>3.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>4899911</v>
       </c>
       <c r="X4" t="n">
-        <v>1.41</v>
+        <v>3.48</v>
       </c>
       <c r="Y4" t="n">
-        <v>49639141</v>
+        <v>2.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.84</v>
+        <v>20517987</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.41</v>
+        <v>3.48</v>
       </c>
       <c r="AB4" t="n">
-        <v>92791743</v>
+        <v>2.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.84</v>
+        <v>29056217</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.41</v>
+        <v>3.48</v>
       </c>
       <c r="AE4" t="n">
-        <v>155605475</v>
+        <v>2.73</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>35565469</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>50659468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PALI</t>
+          <t>SPRB</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="C5" t="n">
-        <v>1.96</v>
+        <v>296.49</v>
       </c>
       <c r="D5" t="n">
-        <v>2.28</v>
+        <v>470000</v>
       </c>
       <c r="E5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.9</v>
+        <v>560000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>272.89%</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>46373290</v>
+        <v>34.77</v>
       </c>
       <c r="H5" t="n">
-        <v>1.85</v>
+        <v>170</v>
       </c>
       <c r="I5" t="n">
-        <v>2.13</v>
+        <v>30.03</v>
       </c>
       <c r="J5" t="n">
-        <v>1.65</v>
+        <v>152.52</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>10383235</v>
       </c>
       <c r="L5" t="n">
-        <v>7130300</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2025-10-06 07:20:00</t>
-        </is>
+        <v>9.050000000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>38.95</v>
       </c>
       <c r="N5" t="n">
-        <v>1.97</v>
+        <v>8.84</v>
       </c>
       <c r="O5" t="n">
-        <v>1.91</v>
+        <v>34.79</v>
       </c>
       <c r="P5" t="n">
-        <v>535358</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>13344752</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2025-10-06 09:20:00</t>
+        </is>
       </c>
       <c r="R5" t="n">
-        <v>1.79</v>
+        <v>37.68</v>
       </c>
       <c r="S5" t="n">
-        <v>1845521</v>
+        <v>32.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>378204</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>37.68</v>
       </c>
       <c r="V5" t="n">
-        <v>7024950</v>
+        <v>32.78</v>
       </c>
       <c r="W5" t="n">
-        <v>2.05</v>
+        <v>385200</v>
       </c>
       <c r="X5" t="n">
-        <v>1.72</v>
+        <v>47.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>17556334</v>
+        <v>32.78</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.14</v>
+        <v>1619718</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.72</v>
+        <v>47.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>23056524</v>
+        <v>30.03</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.28</v>
+        <v>4173256</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.72</v>
+        <v>47.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>35447600</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SOPA</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>125497774</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76524782</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2025-10-06 06:15:00</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>855329</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4899911</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>20517987</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>29056217</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>35565469</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>50659468</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SPRB</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C7" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>170</v>
-      </c>
-      <c r="E7" t="n">
         <v>30.03</v>
       </c>
-      <c r="F7" t="n">
-        <v>152.52</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10383235</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="K7" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="L7" t="n">
-        <v>13344752</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2025-10-06 09:20:00</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>37.68</v>
-      </c>
-      <c r="O7" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="P7" t="n">
-        <v>378204</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>37.68</v>
-      </c>
-      <c r="R7" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="S7" t="n">
-        <v>385200</v>
-      </c>
-      <c r="T7" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1619718</v>
-      </c>
-      <c r="W7" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AF5" t="n">
+        <v>5621747</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH5" t="n">
         <v>30.03</v>
       </c>
-      <c r="Y7" t="n">
-        <v>4173256</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>30.03</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5621747</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>66</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>30.03</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AI5" t="n">
         <v>9025092</v>
       </c>
     </row>
